--- a/注文履歴.xlsx
+++ b/注文履歴.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doome\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365C33CD-C4BC-4DD1-82F8-5E23AEB2269F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A8B6B4F2-C8D4-42D7-B092-6F2FCC3D5083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="注文履歴" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1129,7 +1129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
